--- a/target/test-classes/com.exceldata/UMS_Excel_3_0.xlsx
+++ b/target/test-classes/com.exceldata/UMS_Excel_3_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15225" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>plantName</t>
   </si>
@@ -64,15 +64,9 @@
     <t>Quality Control</t>
   </si>
   <si>
-    <t>InventorySystem</t>
-  </si>
-  <si>
     <t>Inventory management software</t>
   </si>
   <si>
-    <t>InspectionSuite</t>
-  </si>
-  <si>
     <t>Inspection and auditing software</t>
   </si>
   <si>
@@ -112,14 +106,164 @@
     <t>jobRoleName</t>
   </si>
   <si>
-    <t>Initiator</t>
+    <t>softwareVersionUpdate</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>softwareDescriptionUpdate</t>
+  </si>
+  <si>
+    <t>Quality assurance and control system-H</t>
+  </si>
+  <si>
+    <t>Calibration and instrument tool-A</t>
+  </si>
+  <si>
+    <t>Inventory management software-R</t>
+  </si>
+  <si>
+    <t>Inspection and auditing software-U</t>
+  </si>
+  <si>
+    <t>softwareOwnerUpdate</t>
+  </si>
+  <si>
+    <t>Information Technologies</t>
+  </si>
+  <si>
+    <t>Quality Assurances</t>
+  </si>
+  <si>
+    <t>instrumentUpdate</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>noOfApprovalsUpdate</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>jobRoleNameUpdate</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Updated Successfully</t>
+  </si>
+  <si>
+    <t>Job Roles</t>
+  </si>
+  <si>
+    <t>Inventory System</t>
+  </si>
+  <si>
+    <t>Successfully Comments given to Ihod for :</t>
+  </si>
+  <si>
+    <t>Inspection Suites</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>flowName1</t>
+  </si>
+  <si>
+    <t>flowName2</t>
+  </si>
+  <si>
+    <t>Work Flow</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>finalReviewer</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>16102024</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>Pycharm based  tool</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Test Ng Framework</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing Learning based  tool-S</t>
+  </si>
+  <si>
+    <t>Testing Learning based  tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +271,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,7 +293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,11 +316,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,84 +606,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>101</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,25 +808,79 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>202</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -556,77 +888,244 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>303</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>303</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" t="s">
         <v>7</v>
       </c>
+      <c r="Y4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>404</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <v>505</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R6">
+      <formula1>"Job Roles,Work Flow"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
